--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="74">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -69,9 +69,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -132,18 +129,12 @@
     <t>DeliveryPointId</t>
   </si>
   <si>
-    <t>ClientId</t>
-  </si>
-  <si>
     <t>PickCode</t>
   </si>
   <si>
     <t>Foreign Key to DeliveryPoint</t>
   </si>
   <si>
-    <t>Foreign Key to Client</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -235,6 +226,18 @@
   </si>
   <si>
     <t>Foreign Key to Order</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Foreign Key to User</t>
   </si>
 </sst>
 </file>
@@ -437,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -445,9 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +787,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -799,31 +802,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -847,10 +850,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
@@ -862,24 +865,24 @@
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="6" t="s">
@@ -903,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -918,20 +921,20 @@
     <row r="12" spans="1:5" ht="21.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -944,10 +947,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>7</v>
@@ -955,10 +958,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -967,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -978,13 +981,13 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -1008,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
@@ -1023,13 +1026,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1041,13 +1044,13 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="A22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -1071,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>16</v>
@@ -1086,7 +1089,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
@@ -1099,22 +1102,22 @@
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>13</v>
@@ -1123,15 +1126,15 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>16</v>
@@ -1140,13 +1143,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>16</v>
@@ -1161,13 +1164,13 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="6" t="s">
@@ -1191,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>13</v>
@@ -1206,13 +1209,13 @@
     <row r="34" spans="1:5">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1221,13 +1224,13 @@
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="6" t="s">
@@ -1251,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>13</v>
@@ -1266,13 +1269,13 @@
     <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -1281,13 +1284,13 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" ht="30">
       <c r="A42" s="6" t="s">
@@ -1311,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>13</v>
@@ -1326,13 +1329,13 @@
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -1341,13 +1344,13 @@
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="A46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="6" t="s">
@@ -1371,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>13</v>
@@ -1386,13 +1389,13 @@
     <row r="49" spans="1:5">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -1401,13 +1404,13 @@
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="A51" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" ht="30">
       <c r="A52" s="6" t="s">
@@ -1431,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>13</v>
@@ -1446,24 +1449,24 @@
     <row r="54" spans="1:5">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
+      <c r="A56" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="6" t="s">
@@ -1487,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -1502,7 +1505,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1515,40 +1518,40 @@
     <row r="60" spans="1:5">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>7</v>
@@ -1558,137 +1561,137 @@
     <row r="63" spans="1:5">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="A72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" ht="30">
       <c r="A73" s="11" t="s">
@@ -1712,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>16</v>
@@ -1726,10 +1729,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -1738,15 +1741,15 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>13</v>
@@ -1755,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>13</v>
@@ -1773,6 +1776,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A72:E72"/>
@@ -1780,12 +1789,6 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
